--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,45 +757,48 @@
         <v>900</v>
       </c>
       <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -797,10 +807,13 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1084,11 +1124,11 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,48 +1619,52 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="E42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
+      <c r="F42" s="3">
+        <v>25000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1591,66 +1681,75 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,7 +1757,7 @@
         <v>800</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -1670,45 +1769,51 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E46" s="3">
         <v>46900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,13 +1841,16 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -1760,13 +1868,16 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1774,7 +1885,7 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -1783,7 +1894,7 @@
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E54" s="3">
         <v>48800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,51 +2095,55 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2090,14 +2233,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2128,7 +2274,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -2137,10 +2283,13 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E76" s="3">
         <v>46400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2842,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2100</v>
       </c>
       <c r="J89" s="3">
         <v>-2100</v>
       </c>
       <c r="K89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,25 +3070,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -2877,10 +3098,13 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,19 +3164,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,153 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="3">
         <v>900</v>
       </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -810,10 +820,13 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,19 +907,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -922,8 +942,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1127,11 +1167,11 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,54 +1706,58 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E42" s="3">
         <v>35000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>25000</v>
       </c>
       <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+      <c r="G42" s="3">
+        <v>25000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1684,72 +1774,81 @@
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1760,7 +1859,7 @@
         <v>800</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -1772,48 +1871,54 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E46" s="3">
         <v>43600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1853,7 +1961,7 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -1871,13 +1979,16 @@
         <v>500</v>
       </c>
       <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +1999,7 @@
         <v>1400</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -1897,7 +2008,7 @@
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E54" s="3">
         <v>45600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,14 +2273,14 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>200</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -2160,72 +2294,81 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2236,14 +2379,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2256,13 +2399,16 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2277,7 +2423,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2286,10 +2432,13 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E76" s="3">
         <v>42100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2845,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-2100</v>
       </c>
       <c r="K89" s="3">
         <v>-2100</v>
       </c>
       <c r="L89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3080,19 +3301,19 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3101,10 +3322,13 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,22 +3394,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,166 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>900</v>
       </c>
       <c r="F9" s="3">
         <v>900</v>
       </c>
       <c r="G9" s="3">
+        <v>900</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -823,10 +833,13 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -921,11 +941,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>-400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>9700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,69 +1120,75 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,11 +1210,11 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1576,75 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1751,16 +1841,16 @@
         <v>30000</v>
       </c>
       <c r="E42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F42" s="3">
         <v>35000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>25000</v>
       </c>
       <c r="G42" s="3">
         <v>25000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
+      <c r="H42" s="3">
+        <v>25000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1777,83 +1867,92 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
@@ -1862,7 +1961,7 @@
         <v>800</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -1874,51 +1973,57 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E46" s="3">
         <v>49300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>48500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,19 +2057,22 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -1982,18 +2090,21 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
+        <v>500</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
@@ -2002,7 +2113,7 @@
         <v>1400</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -2011,7 +2122,7 @@
         <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E54" s="3">
         <v>51300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,14 +2410,14 @@
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>200</v>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
@@ -2297,78 +2431,87 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2382,14 +2525,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2402,16 +2545,19 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2426,7 +2572,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -2435,10 +2581,13 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E76" s="3">
         <v>48800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3047,7 +3246,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2100</v>
       </c>
       <c r="L89" s="3">
         <v>-2100</v>
       </c>
       <c r="M89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3304,19 +3525,19 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -3325,10 +3546,13 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,25 +3624,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>12100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,152 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>900</v>
       </c>
       <c r="G9" s="3">
         <v>900</v>
       </c>
       <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,25 +818,25 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -836,10 +845,13 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,13 +946,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -944,11 +963,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -968,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,113 +1143,120 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1225,46 +1264,52 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>9900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1844,16 +1933,16 @@
         <v>30000</v>
       </c>
       <c r="F42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G42" s="3">
         <v>35000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>25000</v>
       </c>
       <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+      <c r="I42" s="3">
+        <v>25000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1870,92 +1959,101 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
@@ -1964,7 +2062,7 @@
         <v>800</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -1976,54 +2074,60 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E46" s="3">
         <v>45900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>48500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,13 +2176,13 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -2093,21 +2200,24 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1400</v>
@@ -2116,7 +2226,7 @@
         <v>1400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -2125,7 +2235,7 @@
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E54" s="3">
         <v>48700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2413,14 +2546,14 @@
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -2434,84 +2567,93 @@
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2528,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2557,10 +2702,10 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2575,7 +2720,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -2584,10 +2729,13 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E76" s="3">
         <v>45500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3249,7 +3447,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-2100</v>
       </c>
       <c r="M89" s="3">
         <v>-2100</v>
       </c>
       <c r="N89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,19 +3748,19 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -3549,10 +3769,13 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,28 +3853,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,162 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,25 +831,25 @@
         <v>700</v>
       </c>
       <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -848,10 +858,13 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,16 +966,19 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -966,11 +986,11 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1252,14 +1292,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,54 +1966,58 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E42" s="3">
         <v>30000</v>
@@ -1936,16 +2026,16 @@
         <v>30000</v>
       </c>
       <c r="G42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H42" s="3">
         <v>35000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>25000</v>
       </c>
       <c r="I42" s="3">
         <v>25000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
+      <c r="J42" s="3">
+        <v>25000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -1962,101 +2052,110 @@
       <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>800</v>
@@ -2065,7 +2164,7 @@
         <v>800</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2077,57 +2176,63 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E46" s="3">
         <v>41200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>48500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,25 +2272,28 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
@@ -2203,13 +2311,16 @@
         <v>500</v>
       </c>
       <c r="N48" s="3">
+        <v>500</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2217,10 +2328,10 @@
         <v>2000</v>
       </c>
       <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1400</v>
       </c>
       <c r="G49" s="3">
         <v>1400</v>
@@ -2229,7 +2340,7 @@
         <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2238,7 +2349,7 @@
         <v>300</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E54" s="3">
         <v>44200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2549,14 +2683,14 @@
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
@@ -2570,90 +2704,99 @@
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2673,14 +2816,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,22 +2836,25 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2723,7 +2869,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -2732,10 +2878,13 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E76" s="3">
         <v>41300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,13 +3627,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3450,7 +3649,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2100</v>
       </c>
       <c r="N89" s="3">
         <v>-2100</v>
       </c>
       <c r="O89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
@@ -3751,19 +3972,19 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -3772,10 +3993,13 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,31 +4083,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,177 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>900</v>
       </c>
       <c r="I9" s="3">
         <v>900</v>
       </c>
       <c r="J9" s="3">
+        <v>900</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
@@ -834,25 +844,25 @@
         <v>700</v>
       </c>
       <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -861,10 +871,13 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,43 +904,46 @@
         <v>1500</v>
       </c>
       <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,19 +986,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -989,11 +1009,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,87 +1221,93 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,14 +1335,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,60 +2053,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E42" s="3">
         <v>25000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>30000</v>
       </c>
       <c r="F42" s="3">
         <v>30000</v>
@@ -2029,16 +2119,16 @@
         <v>30000</v>
       </c>
       <c r="H42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I42" s="3">
         <v>35000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>25000</v>
       </c>
       <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
+      <c r="K42" s="3">
+        <v>25000</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
@@ -2055,96 +2145,105 @@
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,13 +2251,13 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
@@ -2167,7 +2266,7 @@
         <v>800</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2179,60 +2278,66 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E46" s="3">
         <v>36800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>48500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,28 +2380,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -2314,27 +2422,30 @@
         <v>500</v>
       </c>
       <c r="O48" s="3">
+        <v>500</v>
+      </c>
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
       </c>
       <c r="F49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="3">
         <v>1800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
@@ -2343,7 +2454,7 @@
         <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2352,7 +2463,7 @@
         <v>300</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E54" s="3">
         <v>40100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>51300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2686,14 +2820,14 @@
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2819,14 +2962,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,16 +2994,16 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -2872,7 +3018,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -2881,10 +3027,13 @@
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E76" s="3">
         <v>36900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,7 +3836,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3652,7 +3851,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-2100</v>
       </c>
       <c r="O89" s="3">
         <v>-2100</v>
       </c>
       <c r="P89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,7 +4184,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3975,19 +4196,19 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -3996,10 +4217,13 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4313,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,190 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>900</v>
       </c>
       <c r="K9" s="3">
+        <v>900</v>
+      </c>
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
@@ -847,25 +857,25 @@
         <v>700</v>
       </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -874,10 +884,13 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
         <v>1500</v>
       </c>
       <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,11 +1020,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1012,11 +1032,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,90 +1258,96 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1338,14 +1378,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,90 +1858,96 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,66 +2140,70 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E42" s="3">
         <v>24900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>30000</v>
       </c>
       <c r="G42" s="3">
         <v>30000</v>
@@ -2122,16 +2212,16 @@
         <v>30000</v>
       </c>
       <c r="I42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J42" s="3">
         <v>35000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>25000</v>
       </c>
       <c r="K42" s="3">
         <v>25000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
+      <c r="L42" s="3">
+        <v>25000</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>10</v>
@@ -2148,119 +2238,128 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
@@ -2269,7 +2368,7 @@
         <v>800</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2281,63 +2380,69 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E46" s="3">
         <v>32600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,31 +2488,34 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2425,13 +2533,16 @@
         <v>500</v>
       </c>
       <c r="P48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,16 +2550,16 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3">
         <v>2000</v>
       </c>
       <c r="G49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="3">
         <v>1800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
@@ -2457,7 +2568,7 @@
         <v>1400</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2466,7 +2577,7 @@
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E54" s="3">
         <v>35800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>51300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,87 +2880,91 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,93 +2990,99 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2965,14 +3108,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,16 +3143,16 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3021,7 +3167,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3030,10 +3176,13 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E76" s="3">
         <v>32900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,7 +4038,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3854,7 +4053,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-2100</v>
       </c>
       <c r="P89" s="3">
         <v>-2100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,19 +4395,20 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4199,19 +4420,19 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -4220,10 +4441,13 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,37 +4543,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,46 +4825,49 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,202 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>900</v>
+      </c>
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>700</v>
       </c>
       <c r="G10" s="3">
         <v>700</v>
@@ -860,25 +869,25 @@
         <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -887,10 +896,13 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1500</v>
       </c>
       <c r="F12" s="3">
         <v>1500</v>
       </c>
       <c r="G12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,11 +1042,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1035,11 +1054,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1261,93 +1294,99 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,14 +1420,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1861,93 +1930,99 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,72 +2226,76 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E42" s="3">
         <v>19900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>30000</v>
       </c>
       <c r="H42" s="3">
         <v>30000</v>
@@ -2215,16 +2304,16 @@
         <v>30000</v>
       </c>
       <c r="J42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K42" s="3">
         <v>35000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>25000</v>
       </c>
       <c r="L42" s="3">
         <v>25000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
+      <c r="M42" s="3">
+        <v>25000</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
@@ -2241,128 +2330,137 @@
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
@@ -2371,7 +2469,7 @@
         <v>800</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2383,66 +2481,72 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E46" s="3">
         <v>29500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,34 +2595,37 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -2536,33 +2643,36 @@
         <v>500</v>
       </c>
       <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
       </c>
       <c r="F49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
       </c>
       <c r="H49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="3">
         <v>1800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1400</v>
       </c>
       <c r="J49" s="3">
         <v>1400</v>
@@ -2571,7 +2681,7 @@
         <v>1400</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -2580,7 +2690,7 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E54" s="3">
         <v>32500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2957,17 +3090,17 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
@@ -2981,108 +3114,117 @@
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3111,14 +3253,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3146,16 +3291,16 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3170,7 +3315,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3179,10 +3324,13 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E76" s="3">
         <v>30000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4041,7 +4239,7 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4056,7 +4254,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q89" s="3">
         <v>-2100</v>
       </c>
       <c r="R89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,22 +4615,23 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4423,19 +4643,19 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -4444,10 +4664,13 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,40 +4772,43 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4828,46 +5073,49 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,215 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>900</v>
       </c>
       <c r="L9" s="3">
         <v>900</v>
       </c>
       <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
@@ -872,25 +882,25 @@
         <v>700</v>
       </c>
       <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -899,10 +909,13 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1500</v>
       </c>
       <c r="G12" s="3">
         <v>1500</v>
       </c>
       <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,11 +1065,11 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1057,11 +1077,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,17 +1312,18 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1297,96 +1331,102 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,14 +1463,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,17 +1982,20 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1933,96 +2003,102 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,78 +2313,82 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E42" s="3">
         <v>13900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>30000</v>
       </c>
       <c r="I42" s="3">
         <v>30000</v>
@@ -2307,16 +2397,16 @@
         <v>30000</v>
       </c>
       <c r="K42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L42" s="3">
         <v>35000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>25000</v>
       </c>
       <c r="M42" s="3">
         <v>25000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>10</v>
+      <c r="N42" s="3">
+        <v>25000</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>10</v>
@@ -2333,137 +2423,146 @@
       <c r="S42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
@@ -2472,7 +2571,7 @@
         <v>800</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2484,69 +2583,75 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E46" s="3">
         <v>26900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,37 +2703,40 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
@@ -2646,13 +2754,16 @@
         <v>500</v>
       </c>
       <c r="R48" s="3">
+        <v>500</v>
+      </c>
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,22 +2771,22 @@
         <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
       </c>
       <c r="I49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1400</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
@@ -2684,7 +2795,7 @@
         <v>1400</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -2693,7 +2804,7 @@
         <v>300</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,7 +2939,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E54" s="3">
         <v>30600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>51300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,52 +3151,55 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3093,17 +3227,17 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3256,14 +3399,14 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3294,16 +3440,16 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3318,7 +3464,7 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3327,10 +3473,13 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E76" s="3">
         <v>27100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4242,7 +4441,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4257,7 +4456,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-2100</v>
       </c>
       <c r="R89" s="3">
         <v>-2100</v>
       </c>
       <c r="S89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,7 +4846,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4637,28 +4858,28 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -4667,10 +4888,13 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5076,46 +5322,49 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,228 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>900</v>
       </c>
       <c r="M9" s="3">
         <v>900</v>
       </c>
       <c r="N9" s="3">
+        <v>900</v>
+      </c>
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
@@ -885,25 +895,25 @@
         <v>700</v>
       </c>
       <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -912,10 +922,13 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1500</v>
       </c>
       <c r="H12" s="3">
         <v>1500</v>
       </c>
       <c r="I12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,11 +1088,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1080,11 +1100,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,20 +1346,21 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1334,99 +1368,105 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1466,14 +1506,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,20 +2052,23 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2006,99 +2076,105 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E41" s="3">
         <v>9500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,19 +2469,19 @@
         <v>6500</v>
       </c>
       <c r="E42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F42" s="3">
         <v>13900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>30000</v>
       </c>
       <c r="J42" s="3">
         <v>30000</v>
@@ -2400,16 +2490,16 @@
         <v>30000</v>
       </c>
       <c r="L42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M42" s="3">
         <v>35000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>25000</v>
       </c>
       <c r="N42" s="3">
         <v>25000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>10</v>
+      <c r="O42" s="3">
+        <v>25000</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -2426,146 +2516,155 @@
       <c r="T42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E44" s="3">
         <v>5600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
@@ -2574,7 +2673,7 @@
         <v>800</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -2586,72 +2685,78 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E46" s="3">
         <v>23600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>48500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,40 +2811,43 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
@@ -2757,13 +2865,16 @@
         <v>500</v>
       </c>
       <c r="S48" s="3">
+        <v>500</v>
+      </c>
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,22 +2885,22 @@
         <v>2600</v>
       </c>
       <c r="F49" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
       </c>
       <c r="H49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I49" s="3">
         <v>2000</v>
       </c>
       <c r="J49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1400</v>
       </c>
       <c r="L49" s="3">
         <v>1400</v>
@@ -2798,7 +2909,7 @@
         <v>1400</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -2807,7 +2918,7 @@
         <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,7 +3062,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E54" s="3">
         <v>27200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
         <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3230,17 +3364,17 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
+      <c r="P58" s="3">
+        <v>200</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1200</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3402,14 +3545,14 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,7 +3577,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -3443,16 +3589,16 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3467,7 +3613,7 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -3476,10 +3622,13 @@
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-71400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E76" s="3">
         <v>23600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>46400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4444,7 +4643,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4459,7 +4658,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-2100</v>
       </c>
       <c r="S89" s="3">
         <v>-2100</v>
       </c>
       <c r="T89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,43 +5067,43 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -4891,10 +5112,13 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,46 +5232,49 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>7200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5325,46 +5571,49 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WRAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>WRAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,241 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>900</v>
       </c>
       <c r="O9" s="3">
+        <v>900</v>
+      </c>
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
@@ -898,25 +908,25 @@
         <v>700</v>
       </c>
       <c r="L10" s="3">
+        <v>700</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
@@ -925,10 +935,13 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1500</v>
       </c>
       <c r="I12" s="3">
         <v>1500</v>
       </c>
       <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,11 +1111,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1103,11 +1123,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,23 +1380,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1371,102 +1405,108 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,14 +1549,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,23 +2122,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2079,102 +2149,108 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,90 +2487,94 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>11700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="E42" s="3">
         <v>6500</v>
       </c>
       <c r="F42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G42" s="3">
         <v>13900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>30000</v>
       </c>
       <c r="K42" s="3">
         <v>30000</v>
@@ -2493,16 +2583,16 @@
         <v>30000</v>
       </c>
       <c r="M42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N42" s="3">
         <v>35000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>25000</v>
       </c>
       <c r="O42" s="3">
         <v>25000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>10</v>
+      <c r="P42" s="3">
+        <v>25000</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>10</v>
@@ -2519,155 +2609,164 @@
       <c r="U42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E44" s="3">
         <v>6500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>800</v>
@@ -2676,7 +2775,7 @@
         <v>800</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -2688,75 +2787,81 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E46" s="3">
         <v>27400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,43 +2919,46 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
@@ -2868,18 +2976,21 @@
         <v>500</v>
       </c>
       <c r="T48" s="3">
+        <v>500</v>
+      </c>
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600</v>
+        <v>4900</v>
       </c>
       <c r="E49" s="3">
         <v>2600</v>
@@ -2888,22 +2999,22 @@
         <v>2600</v>
       </c>
       <c r="G49" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="H49" s="3">
         <v>1900</v>
       </c>
       <c r="I49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J49" s="3">
         <v>2000</v>
       </c>
       <c r="K49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1400</v>
       </c>
       <c r="M49" s="3">
         <v>1400</v>
@@ -2912,7 +3023,7 @@
         <v>1400</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -2921,7 +3032,7 @@
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,13 +3167,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3065,7 +3185,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E54" s="3">
         <v>30900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3367,17 +3501,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
+      <c r="Q58" s="3">
+        <v>200</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>10</v>
@@ -3391,67 +3525,73 @@
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
       </c>
       <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,58 +3599,61 @@
         <v>10800</v>
       </c>
       <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3548,14 +3691,14 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3726,7 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -3592,16 +3738,16 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -3616,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
@@ -3625,10 +3771,13 @@
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,58 +3971,61 @@
         <v>11100</v>
       </c>
       <c r="E66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E76" s="3">
         <v>19800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4820,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4646,7 +4845,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4661,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-2100</v>
       </c>
       <c r="T89" s="3">
         <v>-2100</v>
       </c>
       <c r="U89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,55 +5278,56 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -5115,10 +5336,13 @@
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,49 +5462,52 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,13 +5796,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5574,46 +5820,49 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
     </row>
